--- a/medicine/Pharmacie/Diurétique_de_l'anse/Diurétique_de_l'anse.xlsx
+++ b/medicine/Pharmacie/Diurétique_de_l'anse/Diurétique_de_l'anse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diur%C3%A9tique_de_l%27anse</t>
+          <t>Diurétique_de_l'anse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les diurétiques de l'anse sont des diurétiques qui agissent sur la partie ascendante de l'anse de Henle du rein. On les utilise surtout en médecine pour traiter l'hypertension et les œdèmes souvent dus à une insuffisance cardiaque congestive ou à une insuffisance rénale chronique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diur%C3%A9tique_de_l%27anse</t>
+          <t>Diurétique_de_l'anse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils nécessitent une excrétion dans le tube contourné proximal du glomérule rénal pour atteindre leur cible. Cette excrétion dépend d'un transporteur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils nécessitent une excrétion dans le tube contourné proximal du glomérule rénal pour atteindre leur cible. Cette excrétion dépend d'un transporteur.
 Ils inhibent la réabsorption du sodium au niveau de l'anse de Henle en bloquant la cotransporteur Na-K-Cl (en) (cotransporteur Na+/K+/2Cl-) au niveau de la branche ascendante de l'anse de Henlé ce qui entraîne une augmentation de l'excrétion urinaire de sodium, potassium, chlore, magnésium et calcium, entraînant une perte d'eau. 
-Au niveau de l'appareil juxtaglomérulaire, ils se lient à la même protéine, ce qui stimule la sécrétion de rénine[1]. Ils entraînent une vasodilatation des artérioles[2].
-L'effet natriurétique est important et de courte durée. Il est plus long pour le  bumétanide et torsémide que pour le  furosémide,  ce dernier ayant par ailleurs une biodisponibilité plus aléatoire[3].
+Au niveau de l'appareil juxtaglomérulaire, ils se lient à la même protéine, ce qui stimule la sécrétion de rénine. Ils entraînent une vasodilatation des artérioles.
+L'effet natriurétique est important et de courte durée. Il est plus long pour le  bumétanide et torsémide que pour le  furosémide,  ce dernier ayant par ailleurs une biodisponibilité plus aléatoire.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diur%C3%A9tique_de_l%27anse</t>
+          <t>Diurétique_de_l'anse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,15 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Œdèmes, dont œdème aigu du poumon[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Œdèmes, dont œdème aigu du poumon
 Insuffisance cardiaque
 Hypertension (on préfère les thiazidiques pour leur durée d'action plus longue)
 Hypercalcémies (hors AMM)
-Bien que leur utilisation en cas d'insuffisance rénale aiguë puisse sembler logique, une méta-revue de 2006 ne trouve pas de preuve de leur efficacité[5]. 
+Bien que leur utilisation en cas d'insuffisance rénale aiguë puisse sembler logique, une méta-revue de 2006 ne trouve pas de preuve de leur efficacité. 
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diur%C3%A9tique_de_l%27anse</t>
+          <t>Diurétique_de_l'anse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +596,12 @@
           <t>Résistance aux diurétiques de l'anse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses causes sont multiples. En cas d'insuffisance cardiaque, la résistance provient essentiellement du tube contourné[6]. La résistance observée lors de l'utilisation concomitante d'un anti-inflammatoire non stéroïdien est due à l'occupation par ces derniers de la même molécule faisant office de transporteur au niveau du tube contourné proximal[1]. 
-Cette résistance peut être parfois levée en associant un diurétique de l'anse à un diurétique thiazidique[7]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses causes sont multiples. En cas d'insuffisance cardiaque, la résistance provient essentiellement du tube contourné. La résistance observée lors de l'utilisation concomitante d'un anti-inflammatoire non stéroïdien est due à l'occupation par ces derniers de la même molécule faisant office de transporteur au niveau du tube contourné proximal. 
+Cette résistance peut être parfois levée en associant un diurétique de l'anse à un diurétique thiazidique. 
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diur%C3%A9tique_de_l%27anse</t>
+          <t>Diurétique_de_l'anse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Insuffisance rénale aiguë
 Encéphalopathie hépatique
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Diur%C3%A9tique_de_l%27anse</t>
+          <t>Diurétique_de_l'anse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,14 +669,16 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hypotension permanente ou orthostatique due à un effet diurétique trop important et une réduction des apports hydriques provoquant hypovolémie, déshydratation extracellulaire jusqu'à l'insuffisance rénale fonctionnelle.
 Hyponatrémie de dilution
 Hypokaliémie
 Hypomagnésémie
 Allergie
-Néphrotoxicité et ototoxicité notamment lors de l'association aux aminosides. L'ototoxicité serait due à la fixation sur la protéine NKCC1 située au niveau de l'épithélium auditif régulant la composition de l'endolymphe[8].</t>
+Néphrotoxicité et ototoxicité notamment lors de l'association aux aminosides. L'ototoxicité serait due à la fixation sur la protéine NKCC1 située au niveau de l'épithélium auditif régulant la composition de l'endolymphe.</t>
         </is>
       </c>
     </row>
@@ -666,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Diur%C3%A9tique_de_l%27anse</t>
+          <t>Diurétique_de_l'anse</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,7 +706,9 @@
           <t>Exemples de diurétiques de l'anse</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>furosémide  spécialité = LASILIX ou LASIX
 bumétanide = BURINEX
